--- a/src/main/resources/学生目录.xlsx
+++ b/src/main/resources/学生目录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idea_workspace\stdwork_mangement\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idea_workspace\stdwork_management\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BED10B-A3BB-424C-BD98-0E219F53740F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B973AE-8F8C-4979-83DB-C95E68E138BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F0F5191-EA9D-4FD0-AC3B-CAFB70FEA913}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,31 +40,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张小小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毕业时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dda</t>
+    <t>waxxd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,18 +412,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2417BF33-E5AC-4331-B64E-A413AC8737EC}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,66 +431,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>20198</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>290749</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>234324</v>
-      </c>
-      <c r="C4">
-        <v>111</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>324</v>
-      </c>
-      <c r="C5">
-        <v>234</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43720</v>
+        <v>2013</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43739</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/学生目录.xlsx
+++ b/src/main/resources/学生目录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idea_workspace\stdwork_management\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\idea_workspace\stdwork_management\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B973AE-8F8C-4979-83DB-C95E68E138BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EBFC73-F504-4E74-8DE4-3B5F8F015E32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F0F5191-EA9D-4FD0-AC3B-CAFB70FEA913}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>waxxd</t>
+    <t>请删除示例后输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,11 +415,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,6 +448,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="日期" prompt="必须输入日期" sqref="C1:C1048576" xr:uid="{184DC699-8A3D-4585-93E1-B01D02ABEA20}">
+      <formula1>25934</formula1>
+      <formula2>72686</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
